--- a/kontrola15_stat_CxC.xlsx
+++ b/kontrola15_stat_CxC.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="kontrola15" sheetId="1" r:id="rId1"/>
     <sheet name="beta3" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="LGN" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Kanal CxC1</t>
   </si>
@@ -31,6 +31,21 @@
   </si>
   <si>
     <t>srednia</t>
+  </si>
+  <si>
+    <t>LGN8</t>
+  </si>
+  <si>
+    <t>kontrola15</t>
+  </si>
+  <si>
+    <t>beta3</t>
+  </si>
+  <si>
+    <t>LGN4</t>
+  </si>
+  <si>
+    <t>p_value</t>
   </si>
 </sst>
 </file>
@@ -373,7 +388,7 @@
   <dimension ref="B2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -1372,12 +1387,298 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.30098009829320999</v>
+      </c>
+      <c r="C2">
+        <v>0.22206655975283399</v>
+      </c>
+      <c r="D2">
+        <v>0.26262664059184998</v>
+      </c>
+      <c r="E2">
+        <v>0.25496454351113901</v>
+      </c>
+      <c r="F2">
+        <v>0.23914402489932399</v>
+      </c>
+      <c r="G2">
+        <v>0.25095508701753</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(B2:G2)</f>
+        <v>0.25512282567764782</v>
+      </c>
+      <c r="I2">
+        <f>DEVSQ(B2:G2)</f>
+        <v>3.524630579993237E-3</v>
+      </c>
+      <c r="J2">
+        <v>0.30952380952380998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.32950458978743002</v>
+      </c>
+      <c r="C3">
+        <v>0.17764902658016099</v>
+      </c>
+      <c r="D3">
+        <v>0.25262633859741901</v>
+      </c>
+      <c r="E3">
+        <v>0.25720320449987399</v>
+      </c>
+      <c r="F3">
+        <v>0.37176091168271902</v>
+      </c>
+      <c r="G3">
+        <v>0.328904066459978</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H12" si="0">AVERAGE(B3:G3)</f>
+        <v>0.28627468960126351</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I12" si="1">DEVSQ(B3:G3)</f>
+        <v>2.4770879645280509E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.1645021645021602E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.39456216836040597</v>
+      </c>
+      <c r="C4">
+        <v>0.38818665980381001</v>
+      </c>
+      <c r="D4">
+        <v>0.32233515496844101</v>
+      </c>
+      <c r="E4">
+        <v>0.38754935066397</v>
+      </c>
+      <c r="F4">
+        <v>0.38815813149790701</v>
+      </c>
+      <c r="G4">
+        <v>0.35798121988531101</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.37312878086330753</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>3.9294050667908961E-3</v>
+      </c>
+      <c r="J4">
+        <v>2.1645021645021602E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.82884649721355097</v>
+      </c>
+      <c r="C5">
+        <v>0.94305302567781502</v>
+      </c>
+      <c r="D5">
+        <v>0.94554600804783195</v>
+      </c>
+      <c r="E5">
+        <v>0.90423832992826203</v>
+      </c>
+      <c r="F5">
+        <v>0.894101940617685</v>
+      </c>
+      <c r="G5">
+        <v>0.82373230869542102</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.88991968503009433</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1.4250657610522625E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.31118620601201002</v>
+      </c>
+      <c r="C9">
+        <v>0.31413202891974701</v>
+      </c>
+      <c r="D9">
+        <v>0.32168833238014299</v>
+      </c>
+      <c r="E9">
+        <v>0.35650267740004699</v>
+      </c>
+      <c r="F9">
+        <v>0.26271789554125702</v>
+      </c>
+      <c r="G9">
+        <v>0.31931271382924098</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.31425664234707412</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>4.5312068833854831E-3</v>
+      </c>
+      <c r="J9">
+        <v>2.1645021645021602E-3</v>
+      </c>
+      <c r="K9">
+        <f>_xlfn.T.TEST(B9:G9,B10:G10,2,3)</f>
+        <v>2.0012229187985685E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.58626740222197904</v>
+      </c>
+      <c r="C10">
+        <v>0.60861503009555595</v>
+      </c>
+      <c r="D10">
+        <v>0.66332535904071099</v>
+      </c>
+      <c r="E10">
+        <v>0.469036617960847</v>
+      </c>
+      <c r="F10">
+        <v>0.48618035498516798</v>
+      </c>
+      <c r="G10">
+        <v>0.53657933555411896</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.55833401664306326</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>2.7985078773504604E-2</v>
+      </c>
+      <c r="J10">
+        <v>2.1645021645021602E-3</v>
+      </c>
+      <c r="K10">
+        <f>_xlfn.T.TEST(B9:G9,B11:G11,2,3)</f>
+        <v>1.2154614298645338E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.54626535537454801</v>
+      </c>
+      <c r="C11">
+        <v>0.48080370191883098</v>
+      </c>
+      <c r="D11">
+        <v>0.46043963614253403</v>
+      </c>
+      <c r="E11">
+        <v>0.58382393453620995</v>
+      </c>
+      <c r="F11">
+        <v>0.44627954481815102</v>
+      </c>
+      <c r="G11">
+        <v>0.46283218552161298</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.49674072638531452</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1.5304051908692752E-2</v>
+      </c>
+      <c r="J11">
+        <v>2.1645021645021602E-3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K10:K11" si="2">_xlfn.T.TEST(B11:G11,B12:G12,2,3)</f>
+        <v>6.3711151369871745E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1.2229985547565201</v>
+      </c>
+      <c r="C12">
+        <v>1.21148697165481</v>
+      </c>
+      <c r="D12">
+        <v>1.05373252030457</v>
+      </c>
+      <c r="E12">
+        <v>1.1880612395585299</v>
+      </c>
+      <c r="F12">
+        <v>1.03893546112796</v>
+      </c>
+      <c r="G12">
+        <v>1.16272595704579</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1.1463234507413633</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>3.2241701974344991E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>